--- a/data/Darwin_ODK farmer questionnaire_2023-03-09_bee data extracted.xlsx
+++ b/data/Darwin_ODK farmer questionnaire_2023-03-09_bee data extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/tt15117_bristol_ac_uk/Documents/Nepal Project/Darwin Project/M&amp;E/ODK forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\susakort\field work Nepal\Honeybee_decline_Nepal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{D21B572D-467A-4A77-AE09-501D31E14294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DCFD968-8FB9-41E2-B78D-0B88DC307BEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223ACD97-33E3-4A3A-A03C-2C1C78C32FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2835" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7023" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7023" uniqueCount="933">
   <si>
     <t>_thread_created</t>
   </si>
@@ -2834,6 +2834,9 @@
   </si>
   <si>
     <t>income_per_hive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         </t>
   </si>
 </sst>
 </file>
@@ -3205,18 +3208,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="23" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>44987</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44987</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>44987</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>44987</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>44983</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>44983</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>44983</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>932</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -3782,7 +3786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>44983</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>44977</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>44977</v>
       </c>
@@ -3992,7 +3996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>44977</v>
       </c>
@@ -4061,7 +4065,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>44977</v>
       </c>
@@ -4130,7 +4134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>44968</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>44968</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>44963</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>44963</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>44963</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>44963</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>44963</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>44963</v>
       </c>
@@ -4682,7 +4686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>44963</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>44963</v>
       </c>
@@ -4820,7 +4824,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>44968</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>44968</v>
       </c>
@@ -4958,7 +4962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>44949</v>
       </c>
@@ -5027,7 +5031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>44949</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>44949</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>44949</v>
       </c>
@@ -5234,7 +5238,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>44969</v>
       </c>
@@ -5303,7 +5307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>44969</v>
       </c>
@@ -5372,7 +5376,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>44969</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>44969</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>44949</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>44949</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>44949</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>44949</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>44949</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>44949</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>44949</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>44949</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>44949</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>44949</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>44949</v>
       </c>
@@ -6269,7 +6273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44949</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>44953</v>
       </c>
@@ -6407,7 +6411,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>44953</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>44962</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>44962</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>44962</v>
       </c>
@@ -6689,7 +6693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>44962</v>
       </c>
@@ -6758,7 +6762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>44967</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>44967</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>44967</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>44967</v>
       </c>
@@ -7034,7 +7038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>44968</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>44968</v>
       </c>
@@ -7172,7 +7176,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>44968</v>
       </c>
@@ -7241,7 +7245,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>44968</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>44963</v>
       </c>
@@ -7379,7 +7383,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>44963</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>44963</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>44963</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>44952</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>44952</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>44952</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>44952</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>44948</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>44948</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>44948</v>
       </c>
@@ -8069,7 +8073,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>44948</v>
       </c>
@@ -8138,7 +8142,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>44966</v>
       </c>
@@ -8207,7 +8211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>44966</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>44966</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>44966</v>
       </c>
@@ -8414,7 +8418,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>44960</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>44960</v>
       </c>
@@ -8558,7 +8562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>44960</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>44960</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>44953</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>44953</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>44969</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>44969</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>44969</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>44969</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>44965</v>
       </c>
@@ -9191,7 +9195,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>44965</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>44965</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>44965</v>
       </c>
@@ -9398,7 +9402,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>44962</v>
       </c>
@@ -9467,7 +9471,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>44962</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>44962</v>
       </c>
@@ -9605,7 +9609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>44962</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>44955</v>
       </c>
@@ -9743,7 +9747,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>44955</v>
       </c>
@@ -9812,7 +9816,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>44955</v>
       </c>
@@ -9881,7 +9885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>44955</v>
       </c>
@@ -9950,7 +9954,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>44954</v>
       </c>
@@ -10022,7 +10026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>44954</v>
       </c>
@@ -10091,7 +10095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>44954</v>
       </c>
@@ -10160,7 +10164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>44954</v>
       </c>
@@ -10229,7 +10233,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>44946</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>44946</v>
       </c>
@@ -10367,7 +10371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>44946</v>
       </c>
@@ -10436,7 +10440,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>44946</v>
       </c>
@@ -10505,7 +10509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>44946</v>
       </c>
@@ -10574,7 +10578,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>44946</v>
       </c>
@@ -10643,7 +10647,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>44946</v>
       </c>
@@ -10715,7 +10719,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>44946</v>
       </c>
@@ -10784,7 +10788,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>44964</v>
       </c>
@@ -10853,7 +10857,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>44964</v>
       </c>
@@ -10922,7 +10926,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>44964</v>
       </c>
@@ -10991,7 +10995,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>44964</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>44959</v>
       </c>
@@ -11129,7 +11133,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>44959</v>
       </c>
@@ -11198,7 +11202,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>44959</v>
       </c>
@@ -11267,7 +11271,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>44959</v>
       </c>
@@ -11336,7 +11340,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>44954</v>
       </c>
@@ -11408,7 +11412,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>44954</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>44954</v>
       </c>
@@ -11546,7 +11550,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>44954</v>
       </c>
@@ -11615,7 +11619,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>44949</v>
       </c>
@@ -11687,7 +11691,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>44949</v>
       </c>
@@ -11756,7 +11760,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>44949</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>44949</v>
       </c>
@@ -11894,7 +11898,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>44969</v>
       </c>
@@ -11963,7 +11967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>44969</v>
       </c>
@@ -12032,7 +12036,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>44969</v>
       </c>
@@ -12101,7 +12105,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>44969</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>44964</v>
       </c>
@@ -12239,7 +12243,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>44964</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>44964</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>44964</v>
       </c>
@@ -12446,7 +12450,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>44960</v>
       </c>
@@ -12515,7 +12519,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>44960</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>44960</v>
       </c>
@@ -12653,7 +12657,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>44960</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>44954</v>
       </c>
@@ -12791,7 +12795,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>44954</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>44954</v>
       </c>
@@ -12932,7 +12936,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>44954</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>44923</v>
       </c>
@@ -13070,7 +13074,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>44935</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>44930</v>
       </c>
@@ -13208,7 +13212,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>44924</v>
       </c>
@@ -13277,7 +13281,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>44924</v>
       </c>
@@ -13346,7 +13350,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>44931</v>
       </c>
@@ -13415,7 +13419,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>44931</v>
       </c>
@@ -13484,7 +13488,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>44931</v>
       </c>
@@ -13553,7 +13557,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>44931</v>
       </c>
@@ -13622,7 +13626,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>44924</v>
       </c>
@@ -13691,7 +13695,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>44924</v>
       </c>
@@ -13760,7 +13764,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>44935</v>
       </c>
@@ -13829,7 +13833,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>44935</v>
       </c>
@@ -13898,7 +13902,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>44935</v>
       </c>
@@ -13967,7 +13971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>44930</v>
       </c>
@@ -14036,7 +14040,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>44930</v>
       </c>
@@ -14105,7 +14109,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>44930</v>
       </c>
@@ -14174,7 +14178,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>44934</v>
       </c>
@@ -14243,7 +14247,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>44929</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>44929</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>44929</v>
       </c>
@@ -14450,7 +14454,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>44929</v>
       </c>
@@ -14519,7 +14523,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>44923</v>
       </c>
@@ -14591,7 +14595,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>44924</v>
       </c>
@@ -14663,7 +14667,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>44924</v>
       </c>
@@ -14735,7 +14739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>44924</v>
       </c>
@@ -14804,7 +14808,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>44924</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>44917</v>
       </c>
@@ -14942,7 +14946,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>44917</v>
       </c>
@@ -15011,7 +15015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>44917</v>
       </c>
@@ -15080,7 +15084,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>44917</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>44928</v>
       </c>
@@ -15218,7 +15222,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>44928</v>
       </c>
@@ -15287,7 +15291,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>44928</v>
       </c>
@@ -15359,7 +15363,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>44928</v>
       </c>
@@ -15431,7 +15435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>44934</v>
       </c>
@@ -15500,7 +15504,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>44934</v>
       </c>
@@ -15572,7 +15576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>44934</v>
       </c>
@@ -15641,7 +15645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>44936</v>
       </c>
@@ -15710,7 +15714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>44936</v>
       </c>
@@ -15779,7 +15783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>44936</v>
       </c>
@@ -15848,7 +15852,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>44936</v>
       </c>
@@ -15917,7 +15921,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>44932</v>
       </c>
@@ -15986,7 +15990,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>44932</v>
       </c>
@@ -16055,7 +16059,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>44932</v>
       </c>
@@ -16124,7 +16128,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>44929</v>
       </c>
@@ -16196,7 +16200,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>44929</v>
       </c>
@@ -16265,7 +16269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>44929</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>44929</v>
       </c>
@@ -16403,7 +16407,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>44929</v>
       </c>
@@ -16472,7 +16476,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>44917</v>
       </c>
@@ -16541,7 +16545,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>44917</v>
       </c>
@@ -16610,7 +16614,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>44917</v>
       </c>
@@ -16679,7 +16683,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>44917</v>
       </c>
@@ -16748,7 +16752,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>44917</v>
       </c>
@@ -16817,7 +16821,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>44917</v>
       </c>
@@ -16886,7 +16890,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>44917</v>
       </c>
@@ -16955,7 +16959,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>44917</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>44934</v>
       </c>
@@ -17093,7 +17097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>44934</v>
       </c>
@@ -17162,7 +17166,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>44934</v>
       </c>
@@ -17231,7 +17235,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>44934</v>
       </c>
@@ -17300,7 +17304,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>44923</v>
       </c>
@@ -17369,7 +17373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>44923</v>
       </c>
@@ -17438,7 +17442,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>44923</v>
       </c>
@@ -17510,7 +17514,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>44916</v>
       </c>
@@ -17579,7 +17583,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>44916</v>
       </c>
@@ -17648,7 +17652,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>44915</v>
       </c>
@@ -17717,7 +17721,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>44915</v>
       </c>
@@ -17786,7 +17790,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>44916</v>
       </c>
@@ -17855,7 +17859,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>44916</v>
       </c>
@@ -17924,7 +17928,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>44916</v>
       </c>
@@ -17993,7 +17997,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>44916</v>
       </c>
@@ -18062,7 +18066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>44915</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>44915</v>
       </c>
@@ -18200,7 +18204,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>44915</v>
       </c>
@@ -18269,7 +18273,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>44915</v>
       </c>
@@ -18338,7 +18342,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>44927</v>
       </c>
@@ -18407,7 +18411,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>44923</v>
       </c>
@@ -18476,7 +18480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>44923</v>
       </c>
@@ -18545,7 +18549,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>44923</v>
       </c>
@@ -18614,7 +18618,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>44927</v>
       </c>
@@ -18683,7 +18687,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>44927</v>
       </c>
@@ -18752,7 +18756,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>44927</v>
       </c>
@@ -18821,7 +18825,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>44923</v>
       </c>
@@ -18890,7 +18894,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
         <v>44923</v>
       </c>
@@ -18959,7 +18963,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>44923</v>
       </c>
@@ -19028,7 +19032,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>44923</v>
       </c>
@@ -19097,7 +19101,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>44918</v>
       </c>
@@ -19166,7 +19170,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>44918</v>
       </c>
@@ -19235,7 +19239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>44918</v>
       </c>
@@ -19304,7 +19308,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>44918</v>
       </c>
@@ -19373,7 +19377,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>44930</v>
       </c>
@@ -19442,7 +19446,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>44930</v>
       </c>
@@ -19511,7 +19515,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>44930</v>
       </c>
@@ -19580,7 +19584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>44930</v>
       </c>
@@ -19649,7 +19653,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>44927</v>
       </c>
@@ -19718,7 +19722,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>44927</v>
       </c>
@@ -19787,7 +19791,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>44927</v>
       </c>
@@ -19856,7 +19860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>44927</v>
       </c>
@@ -19925,7 +19929,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>44919</v>
       </c>
@@ -19994,7 +19998,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>44919</v>
       </c>
@@ -20063,7 +20067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>44919</v>
       </c>
@@ -20132,7 +20136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>44919</v>
       </c>
@@ -20201,7 +20205,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>44916</v>
       </c>
@@ -20270,7 +20274,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>44916</v>
       </c>
@@ -20339,7 +20343,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>44916</v>
       </c>
@@ -20408,7 +20412,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>44916</v>
       </c>
@@ -20477,7 +20481,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>44921</v>
       </c>
@@ -20546,7 +20550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>44921</v>
       </c>
@@ -20615,7 +20619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>44921</v>
       </c>
@@ -20687,7 +20691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
         <v>44921</v>
       </c>
@@ -20756,7 +20760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
         <v>44915</v>
       </c>
@@ -20825,7 +20829,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A255" s="4">
         <v>44914</v>
       </c>
@@ -20894,7 +20898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
         <v>44914</v>
       </c>
@@ -20963,7 +20967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
         <v>44914</v>
       </c>
@@ -21032,7 +21036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
         <v>44913</v>
       </c>
@@ -21101,7 +21105,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A259" s="4">
         <v>44913</v>
       </c>
@@ -21170,7 +21174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
         <v>44913</v>
       </c>
@@ -21239,7 +21243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A261" s="4">
         <v>44913</v>
       </c>
@@ -21308,7 +21312,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
         <v>44922</v>
       </c>
@@ -21377,7 +21381,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4">
         <v>44922</v>
       </c>
@@ -21446,7 +21450,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
         <v>44922</v>
       </c>
@@ -21515,7 +21519,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4">
         <v>44922</v>
       </c>
@@ -21584,7 +21588,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
         <v>44913</v>
       </c>
@@ -21653,7 +21657,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4">
         <v>44913</v>
       </c>
@@ -21722,7 +21726,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
         <v>44913</v>
       </c>
@@ -21791,7 +21795,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4">
         <v>44913</v>
       </c>
@@ -21860,7 +21864,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
         <v>44913</v>
       </c>
@@ -21932,7 +21936,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4">
         <v>44913</v>
       </c>
@@ -22001,7 +22005,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4">
         <v>44912</v>
       </c>
@@ -22073,7 +22077,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
         <v>44912</v>
       </c>
@@ -22142,7 +22146,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4">
         <v>44912</v>
       </c>
@@ -22211,7 +22215,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
         <v>44912</v>
       </c>
@@ -22280,7 +22284,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4">
         <v>44912</v>
       </c>
@@ -22349,7 +22353,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
         <v>44912</v>
       </c>
@@ -22418,7 +22422,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4">
         <v>44911</v>
       </c>
@@ -22487,7 +22491,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
         <v>44911</v>
       </c>
@@ -22556,7 +22560,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4">
         <v>44911</v>
       </c>
@@ -22625,7 +22629,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
         <v>44911</v>
       </c>
@@ -22694,7 +22698,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4">
         <v>44911</v>
       </c>
@@ -22763,7 +22767,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
         <v>44911</v>
       </c>
@@ -22832,7 +22836,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4">
         <v>44911</v>
       </c>
@@ -22904,7 +22908,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
         <v>44911</v>
       </c>
@@ -22973,7 +22977,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="4">
         <v>44911</v>
       </c>
@@ -23042,7 +23046,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4">
         <v>44911</v>
       </c>
@@ -23111,7 +23115,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
         <v>44911</v>
       </c>
@@ -23180,7 +23184,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4">
         <v>44911</v>
       </c>
@@ -23249,7 +23253,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
         <v>44911</v>
       </c>
@@ -23318,7 +23322,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4">
         <v>44911</v>
       </c>
@@ -23387,7 +23391,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
         <v>44911</v>
       </c>
@@ -23459,7 +23463,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
         <v>44911</v>
       </c>
@@ -23528,7 +23532,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
         <v>44911</v>
       </c>
@@ -23597,7 +23601,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
         <v>44911</v>
       </c>
@@ -23666,7 +23670,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
         <v>44914</v>
       </c>
@@ -23735,7 +23739,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4">
         <v>44914</v>
       </c>
@@ -23804,7 +23808,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
         <v>44914</v>
       </c>
@@ -23873,7 +23877,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4">
         <v>44914</v>
       </c>
@@ -23942,7 +23946,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
         <v>44911</v>
       </c>
@@ -24014,7 +24018,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4">
         <v>44911</v>
       </c>
@@ -24086,7 +24090,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A302" s="4">
         <v>44913</v>
       </c>
@@ -24155,7 +24159,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
         <v>44913</v>
       </c>
@@ -24227,7 +24231,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A304" s="4">
         <v>44913</v>
       </c>
@@ -24296,7 +24300,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
         <v>44911</v>
       </c>
@@ -24365,7 +24369,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A306" s="4">
         <v>44911</v>
       </c>
@@ -24437,7 +24441,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
         <v>44911</v>
       </c>
@@ -24506,7 +24510,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A308" s="4">
         <v>44911</v>
       </c>
@@ -24575,7 +24579,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
         <v>44910</v>
       </c>
@@ -24644,7 +24648,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A310" s="4">
         <v>44910</v>
       </c>
@@ -24713,7 +24717,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
         <v>44910</v>
       </c>
@@ -24785,7 +24789,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A312" s="4">
         <v>44910</v>
       </c>
@@ -24854,7 +24858,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
         <v>44910</v>
       </c>
@@ -24923,7 +24927,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A314" s="4">
         <v>44910</v>
       </c>
@@ -24992,7 +24996,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
         <v>44910</v>
       </c>
@@ -25061,7 +25065,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A316" s="4">
         <v>44910</v>
       </c>
@@ -25130,7 +25134,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A317" s="4">
         <v>44910</v>
       </c>
@@ -25199,7 +25203,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
         <v>44910</v>
       </c>
@@ -25268,7 +25272,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A319" s="4">
         <v>44910</v>
       </c>
@@ -25337,7 +25341,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
         <v>44910</v>
       </c>
@@ -25406,7 +25410,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A321" s="4">
         <v>44910</v>
       </c>
@@ -25475,7 +25479,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
         <v>44910</v>
       </c>
@@ -25544,7 +25548,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
         <v>44910</v>
       </c>
@@ -25616,7 +25620,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
         <v>44910</v>
       </c>
@@ -25685,7 +25689,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
         <v>44910</v>
       </c>
@@ -25754,7 +25758,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>44910</v>
       </c>
@@ -25823,7 +25827,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
         <v>44910</v>
       </c>
@@ -25892,7 +25896,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
         <v>44909</v>
       </c>
@@ -25961,7 +25965,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
         <v>44909</v>
       </c>
@@ -26030,7 +26034,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>44909</v>
       </c>
@@ -26099,7 +26103,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
         <v>44909</v>
       </c>
@@ -26168,7 +26172,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
         <v>44909</v>
       </c>
@@ -26237,7 +26241,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>44909</v>
       </c>
@@ -26306,7 +26310,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
         <v>44910</v>
       </c>
@@ -26375,7 +26379,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
         <v>44910</v>
       </c>
@@ -26447,7 +26451,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
         <v>44910</v>
       </c>
@@ -26516,7 +26520,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
         <v>44910</v>
       </c>
@@ -26585,7 +26589,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
         <v>44910</v>
       </c>
@@ -26654,7 +26658,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
         <v>44910</v>
       </c>
@@ -26726,7 +26730,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="4">
         <v>44910</v>
       </c>
@@ -26795,7 +26799,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
         <v>44910</v>
       </c>
@@ -26864,7 +26868,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="4">
         <v>44910</v>
       </c>
@@ -26933,7 +26937,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
         <v>44910</v>
       </c>
@@ -27002,7 +27006,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="4">
         <v>44910</v>
       </c>
@@ -27074,7 +27078,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
         <v>44910</v>
       </c>
@@ -27143,7 +27147,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="4">
         <v>44910</v>
       </c>
@@ -27212,7 +27216,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="4">
         <v>44910</v>
       </c>
@@ -27281,7 +27285,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
         <v>44910</v>
       </c>
@@ -27350,7 +27354,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="4">
         <v>44909</v>
       </c>
@@ -27422,7 +27426,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
         <v>44909</v>
       </c>
@@ -27491,7 +27495,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="4">
         <v>44909</v>
       </c>
@@ -27560,7 +27564,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
         <v>44909</v>
       </c>
@@ -27629,7 +27633,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="4">
         <v>44909</v>
       </c>
@@ -27698,7 +27702,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
         <v>44909</v>
       </c>
@@ -27767,7 +27771,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="4">
         <v>44909</v>
       </c>
@@ -27836,7 +27840,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
         <v>44909</v>
       </c>
@@ -27905,7 +27909,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="4">
         <v>44909</v>
       </c>
@@ -27974,7 +27978,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
         <v>44909</v>
       </c>
@@ -28043,7 +28047,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="4">
         <v>44909</v>
       </c>
@@ -28112,7 +28116,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
         <v>44909</v>
       </c>
@@ -28184,7 +28188,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="4">
         <v>44909</v>
       </c>
@@ -28253,7 +28257,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="4">
         <v>44909</v>
       </c>
@@ -28322,7 +28326,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
         <v>44909</v>
       </c>
@@ -28394,7 +28398,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="4">
         <v>44901</v>
       </c>
@@ -28466,7 +28470,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="4">
         <v>44901</v>
       </c>
@@ -28535,7 +28539,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="4">
         <v>44901</v>
       </c>
@@ -28604,7 +28608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
         <v>44901</v>
       </c>
@@ -28673,7 +28677,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="4">
         <v>44906</v>
       </c>
@@ -28745,7 +28749,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
         <v>44906</v>
       </c>
@@ -28817,7 +28821,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="4">
         <v>44906</v>
       </c>
@@ -28886,7 +28890,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
         <v>44906</v>
       </c>
@@ -28955,7 +28959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="4">
         <v>44904</v>
       </c>
@@ -29027,7 +29031,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="4">
         <v>44904</v>
       </c>
@@ -29096,7 +29100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="4">
         <v>44904</v>
       </c>
@@ -29168,7 +29172,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="4">
         <v>44904</v>
       </c>
@@ -29237,7 +29241,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="4">
         <v>44897</v>
       </c>
@@ -29306,7 +29310,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="4">
         <v>44897</v>
       </c>
@@ -29378,7 +29382,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="4">
         <v>44897</v>
       </c>
@@ -29450,7 +29454,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="4">
         <v>44897</v>
       </c>
@@ -29519,7 +29523,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
         <v>44895</v>
       </c>
@@ -29588,7 +29592,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="4">
         <v>44895</v>
       </c>
@@ -29657,7 +29661,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="4">
         <v>44895</v>
       </c>
@@ -29726,7 +29730,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="4">
         <v>44895</v>
       </c>
@@ -29795,7 +29799,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="4">
         <v>44894</v>
       </c>
@@ -29864,7 +29868,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="4">
         <v>44894</v>
       </c>
@@ -29933,7 +29937,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="4">
         <v>44894</v>
       </c>
@@ -30002,7 +30006,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="4">
         <v>44893</v>
       </c>
@@ -30074,7 +30078,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
         <v>44903</v>
       </c>
@@ -30146,7 +30150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="4">
         <v>44903</v>
       </c>
@@ -30218,7 +30222,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
         <v>44903</v>
       </c>
@@ -30290,7 +30294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="4">
         <v>44903</v>
       </c>
@@ -30362,7 +30366,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A392" s="4">
         <v>44902</v>
       </c>
@@ -30434,7 +30438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
         <v>44902</v>
       </c>
@@ -30503,7 +30507,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A394" s="4">
         <v>44902</v>
       </c>
@@ -30572,7 +30576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
         <v>44902</v>
       </c>
@@ -30641,7 +30645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="4">
         <v>44907</v>
       </c>
@@ -30710,7 +30714,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
         <v>44907</v>
       </c>
@@ -30779,7 +30783,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="4">
         <v>44907</v>
       </c>
@@ -30848,7 +30852,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
         <v>44907</v>
       </c>
@@ -30917,7 +30921,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A400" s="4">
         <v>44896</v>
       </c>
@@ -30986,7 +30990,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
         <v>44896</v>
       </c>
@@ -31055,7 +31059,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A402" s="4">
         <v>44896</v>
       </c>
@@ -31124,7 +31128,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
         <v>44896</v>
       </c>
@@ -31193,7 +31197,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="4">
         <v>44903</v>
       </c>
@@ -31265,7 +31269,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
         <v>44901</v>
       </c>
@@ -31334,7 +31338,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="4">
         <v>44908</v>
       </c>
@@ -31403,7 +31407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="4">
         <v>44901</v>
       </c>
@@ -31472,7 +31476,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
         <v>44901</v>
       </c>
@@ -31541,7 +31545,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="4">
         <v>44908</v>
       </c>
@@ -31610,7 +31614,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
         <v>44893</v>
       </c>
@@ -31679,7 +31683,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="4">
         <v>44901</v>
       </c>
@@ -31748,7 +31752,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
         <v>44908</v>
       </c>
@@ -31817,7 +31821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A413" s="4">
         <v>44893</v>
       </c>
@@ -31886,7 +31890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
         <v>44908</v>
       </c>
@@ -31955,7 +31959,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A415" s="4">
         <v>44893</v>
       </c>
@@ -32024,7 +32028,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
         <v>44893</v>
       </c>
@@ -32093,7 +32097,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="4">
         <v>44903</v>
       </c>
@@ -32162,7 +32166,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
         <v>44903</v>
       </c>
@@ -32231,7 +32235,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="4">
         <v>44903</v>
       </c>
@@ -32300,7 +32304,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
         <v>44903</v>
       </c>
@@ -32369,7 +32373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="4">
         <v>44899</v>
       </c>
@@ -32441,7 +32445,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="4">
         <v>44895</v>
       </c>
@@ -32510,7 +32514,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
         <v>44895</v>
       </c>
@@ -32582,7 +32586,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="4">
         <v>44895</v>
       </c>
@@ -32651,7 +32655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="4">
         <v>44895</v>
       </c>
@@ -32720,7 +32724,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="4">
         <v>44897</v>
       </c>
@@ -32789,7 +32793,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:23" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="4">
         <v>44897</v>
       </c>
@@ -32858,7 +32862,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="4">
         <v>44897</v>
       </c>
@@ -32927,7 +32931,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="4">
         <v>44890</v>
       </c>
@@ -32999,7 +33003,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="4">
         <v>44894</v>
       </c>
@@ -33068,7 +33072,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="4">
         <v>44894</v>
       </c>
@@ -33137,7 +33141,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="4">
         <v>44894</v>
       </c>
@@ -33209,7 +33213,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="4">
         <v>44894</v>
       </c>
@@ -33278,7 +33282,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="4">
         <v>44894</v>
       </c>
@@ -33347,7 +33351,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="4">
         <v>44890</v>
       </c>
@@ -33419,7 +33423,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="4">
         <v>44899</v>
       </c>
@@ -33488,7 +33492,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="4">
         <v>44899</v>
       </c>
@@ -33557,7 +33561,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="438" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
         <v>44899</v>
       </c>
@@ -33629,7 +33633,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="439" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="4">
         <v>44899</v>
       </c>
@@ -33698,7 +33702,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
         <v>44902</v>
       </c>
@@ -33767,7 +33771,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="441" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="4">
         <v>44902</v>
       </c>
@@ -33839,7 +33843,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="442" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:23" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
         <v>44902</v>
       </c>
@@ -33911,7 +33915,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="443" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="4">
         <v>44902</v>
       </c>
@@ -33980,7 +33984,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="444" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
         <v>44900</v>
       </c>
@@ -34049,7 +34053,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="4">
         <v>44900</v>
       </c>
@@ -34118,7 +34122,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
         <v>44900</v>
       </c>
@@ -34187,7 +34191,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="4">
         <v>44900</v>
       </c>
@@ -34259,7 +34263,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="448" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
         <v>44897</v>
       </c>
@@ -34328,7 +34332,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="4">
         <v>44897</v>
       </c>
@@ -34397,7 +34401,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
         <v>44897</v>
       </c>
@@ -34466,7 +34470,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="4">
         <v>44897</v>
       </c>
@@ -34535,7 +34539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="4">
         <v>44896</v>
       </c>
@@ -34604,7 +34608,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="4">
         <v>44896</v>
       </c>
@@ -34673,7 +34677,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="4">
         <v>44896</v>
       </c>
@@ -34745,7 +34749,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="4">
         <v>44895</v>
       </c>
@@ -34814,7 +34818,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="4">
         <v>44896</v>
       </c>
@@ -34886,7 +34890,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="4">
         <v>44896</v>
       </c>
@@ -34955,7 +34959,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="4">
         <v>44896</v>
       </c>
@@ -35027,7 +35031,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="4">
         <v>44896</v>
       </c>
@@ -35099,7 +35103,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="4">
         <v>44895</v>
       </c>
@@ -35168,7 +35172,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="4">
         <v>44895</v>
       </c>
@@ -35237,7 +35241,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="4">
         <v>44895</v>
       </c>
@@ -35306,7 +35310,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="463" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="4">
         <v>44894</v>
       </c>
@@ -35375,7 +35379,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="4">
         <v>44893</v>
       </c>
@@ -35444,7 +35448,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="4">
         <v>44893</v>
       </c>
@@ -35513,7 +35517,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="4">
         <v>44893</v>
       </c>
@@ -35582,7 +35586,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="4">
         <v>44893</v>
       </c>
@@ -35651,7 +35655,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
         <v>44893</v>
       </c>
@@ -35720,7 +35724,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="4">
         <v>44893</v>
       </c>
@@ -35789,7 +35793,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
         <v>44893</v>
       </c>
@@ -35858,7 +35862,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="4">
         <v>44893</v>
       </c>
@@ -35930,7 +35934,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
         <v>44907</v>
       </c>
@@ -36002,7 +36006,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="4">
         <v>44907</v>
       </c>
@@ -36071,7 +36075,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
         <v>44907</v>
       </c>
@@ -36140,7 +36144,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="475" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="4">
         <v>44907</v>
       </c>
@@ -36209,7 +36213,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="476" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
         <v>44894</v>
       </c>
@@ -36278,7 +36282,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="477" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="4">
         <v>44894</v>
       </c>
@@ -36347,7 +36351,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="478" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
         <v>44894</v>
       </c>
@@ -36416,7 +36420,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="4">
         <v>44894</v>
       </c>
@@ -36488,7 +36492,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
         <v>44893</v>
       </c>
@@ -36557,7 +36561,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="4">
         <v>44893</v>
       </c>
@@ -36626,7 +36630,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="4">
         <v>44893</v>
       </c>
@@ -36695,7 +36699,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="4">
         <v>44890</v>
       </c>
@@ -36764,7 +36768,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:23" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="4">
         <v>44890</v>
       </c>
@@ -36836,7 +36840,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.35">
       <c r="K486" s="3">
         <f>AVERAGE(K2:K484)</f>
         <v>35537.987577639753</v>
@@ -36854,14 +36858,20 @@
         <v>1433.8598241098241</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N487">
         <f>(N486/K486)</f>
         <v>0.12059358521555216</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W484" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W484" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="patarasi"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36872,9 +36882,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>920</v>
       </c>
@@ -36882,7 +36892,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>922</v>
       </c>
@@ -36890,12 +36900,12 @@
         <v>923</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>925</v>
       </c>
@@ -36903,7 +36913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>926</v>
       </c>
@@ -36911,7 +36921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>927</v>
       </c>
@@ -36919,7 +36929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>928</v>
       </c>
@@ -36927,7 +36937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>929</v>
       </c>
@@ -36935,7 +36945,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>930</v>
       </c>

--- a/data/Darwin_ODK farmer questionnaire_2023-03-09_bee data extracted.xlsx
+++ b/data/Darwin_ODK farmer questionnaire_2023-03-09_bee data extracted.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\susakort\field work Nepal\Honeybee_decline_Nepal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223ACD97-33E3-4A3A-A03C-2C1C78C32FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B796D430-8515-4A66-8E8A-8EA841803885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2835" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2835" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Settings" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Settings" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$W$484</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7023" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7600" uniqueCount="933">
   <si>
     <t>_thread_created</t>
   </si>
@@ -3211,8 +3212,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:W484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36877,6 +36878,2611 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC6CC5-E92F-4D6E-9D12-75987A970D76}">
+  <dimension ref="A1:I89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>123</v>
+      </c>
+      <c r="F3" s="3">
+        <v>17.571428571428573</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3">
+        <v>47</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3">
+        <v>32</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1750</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="3">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3">
+        <v>60</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3">
+        <v>55</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
+        <v>40</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3">
+        <v>53</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>55</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3">
+        <v>32</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>50</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="3">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="3">
+        <v>75</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="3">
+        <v>52</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="3">
+        <v>30</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="3">
+        <v>35</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="3">
+        <v>56</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="3">
+        <v>29</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="3">
+        <v>57</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="3">
+        <v>36</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="3">
+        <v>28</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="3">
+        <v>23</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="3">
+        <v>35</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="3">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="3">
+        <v>32</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="3">
+        <v>51</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="3">
+        <v>40</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="3">
+        <v>30</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="3">
+        <v>35</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="3">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="3">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="3">
+        <v>40</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="3">
+        <v>37</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="3">
+        <v>29</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="3">
+        <v>49</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="3">
+        <v>50</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="3">
+        <v>43</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="3">
+        <v>30</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="3">
+        <v>30</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="3">
+        <v>26</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="3">
+        <v>59</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="3">
+        <v>41</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="3">
+        <v>37</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="3">
+        <v>40</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="3">
+        <v>36</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="3">
+        <v>39</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="3">
+        <v>47</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="3">
+        <v>25</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="3">
+        <v>38</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="3">
+        <v>23</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="3">
+        <v>57</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="3">
+        <v>42</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="3">
+        <v>62</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="3">
+        <v>20</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="3">
+        <v>25</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="3">
+        <v>35</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
